--- a/src/main/resources/static/excel/user_template.xlsx
+++ b/src/main/resources/static/excel/user_template.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ForDevelop\pleiades2019\WorkSpace\shift-boot\shift-boot\src\main\resources\static\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E734741-5CFE-43B8-98C6-AD17B9A406D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B442BBF-CE64-4348-B6CE-05CCAD44E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E08EE715-EA20-4DF0-B938-83F4CD155E4D}"/>
   </bookViews>
@@ -482,5 +477,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excel/user_template.xlsx
+++ b/src/main/resources/static/excel/user_template.xlsx
@@ -1,59 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B442BBF-CE64-4348-B6CE-05CCAD44E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBAFAC-4348-4EFA-8AD1-A2F80B4D5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E08EE715-EA20-4DF0-B938-83F4CD155E4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="cell_B2">Sheet1!$B$2</definedName>
+    <definedName name="user_id">sheet1!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>user-template.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -66,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -74,34 +56,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -120,7 +80,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,7 +96,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -148,7 +108,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -165,7 +125,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -195,29 +155,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -247,23 +190,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,66 +341,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B10569-0EBC-4465-99F7-A47945C2999A}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE842C4E-4FFE-400D-BD8B-EB47F5FE266F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/src/main/resources/static/excel/user_template.xlsx
+++ b/src/main/resources/static/excel/user_template.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DBAFAC-4348-4EFA-8AD1-A2F80B4D5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98C079-5F3D-425A-85ED-AF9D6D818F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="user_id">sheet1!$B$2</definedName>
+    <definedName name="base_cell">Sheet1!$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,6 +20,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ユーザー一覧</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>フリガナ</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -56,12 +76,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -341,15 +377,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE842C4E-4FFE-400D-BD8B-EB47F5FE266F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickTop="1"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
